--- a/Program/schedule.xlsx
+++ b/Program/schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,22 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Gromacs</t>
+          <t>Amber</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GromacsEnergy</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>GromacsEquil</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>GromacsProduction</t>
         </is>
       </c>
     </row>
@@ -481,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calculations/Test123/</t>
+          <t>Calculations/HalloTEST/</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,20 +504,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Test123</t>
+          <t>HalloTEST</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Program/schedule.xlsx
+++ b/Program/schedule.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calculations/HalloTEST/</t>
+          <t>Calculations/TEST/</t>
         </is>
       </c>
       <c r="C2" t="n">
